--- a/docs/GROUP - C Weekly Progress Report.xlsx
+++ b/docs/GROUP - C Weekly Progress Report.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Step Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\cardiovascular-disease-prediction\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{21ADD7DB-3E23-4EBF-850D-AC4796451508}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9B611FB-BEB1-4F2A-BECB-9D9BC01D6189}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{8223AA31-6659-428F-A36B-A92BFE678B6C}"/>
   </bookViews>
@@ -283,10 +283,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -296,6 +294,21 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -303,33 +316,43 @@
   <dxfs count="10">
     <dxf>
       <font>
-        <color rgb="FF9C0006"/>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
       </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
+      <alignment horizontal="left" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -348,40 +371,17 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
+        <color rgb="FF9C0006"/>
       </font>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -397,22 +397,22 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D57AB53B-F699-4696-B86A-BE5D01D4904D}" name="Table1" displayName="Table1" ref="A15:F24" totalsRowShown="0" headerRowDxfId="4" dataDxfId="5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D57AB53B-F699-4696-B86A-BE5D01D4904D}" name="Table1" displayName="Table1" ref="A15:F24" totalsRowShown="0" headerRowDxfId="8" dataDxfId="1">
   <autoFilter ref="A15:F24" xr:uid="{D57AB53B-F699-4696-B86A-BE5D01D4904D}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{ED33A48B-D1CE-41CD-8CC6-34812A592555}" name="Members"/>
-    <tableColumn id="2" xr3:uid="{FDB5DA1A-7203-4A45-8FA8-E99AF10F1B82}" name="Week 1-3" dataDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{2CC5A466-7EB6-4634-8895-952B59F7A66E}" name="Week - 4" dataDxfId="8"/>
-    <tableColumn id="4" xr3:uid="{E40FD174-8A88-45E3-A0CC-689EF08CFC0D}" name="Week-5" dataDxfId="7"/>
-    <tableColumn id="5" xr3:uid="{FDEE3588-2152-4E62-80C0-6D232F7A0ECE}" name="Week - 6" dataDxfId="6"/>
-    <tableColumn id="6" xr3:uid="{055F4438-72ED-4FC2-9ED7-A3D45A9258D5}" name="Week - 7"/>
+    <tableColumn id="1" xr3:uid="{ED33A48B-D1CE-41CD-8CC6-34812A592555}" name="Members" dataDxfId="7"/>
+    <tableColumn id="2" xr3:uid="{FDB5DA1A-7203-4A45-8FA8-E99AF10F1B82}" name="Week 1-3" dataDxfId="6"/>
+    <tableColumn id="3" xr3:uid="{2CC5A466-7EB6-4634-8895-952B59F7A66E}" name="Week - 4" dataDxfId="5"/>
+    <tableColumn id="4" xr3:uid="{E40FD174-8A88-45E3-A0CC-689EF08CFC0D}" name="Week-5" dataDxfId="4"/>
+    <tableColumn id="5" xr3:uid="{FDEE3588-2152-4E62-80C0-6D232F7A0ECE}" name="Week - 6" dataDxfId="3"/>
+    <tableColumn id="6" xr3:uid="{055F4438-72ED-4FC2-9ED7-A3D45A9258D5}" name="Week - 7" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{D6312D3B-786A-47CE-BE6B-AD57DB5CA6C6}" name="Table3" displayName="Table3" ref="A2:B11" totalsRowShown="0" headerRowDxfId="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{D6312D3B-786A-47CE-BE6B-AD57DB5CA6C6}" name="Table3" displayName="Table3" ref="A2:B11" totalsRowShown="0" headerRowDxfId="0">
   <autoFilter ref="A2:B11" xr:uid="{D6312D3B-786A-47CE-BE6B-AD57DB5CA6C6}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{B2CE2999-A66A-4FBA-B83D-33D32E7E301E}" name="Members"/>
@@ -742,7 +742,7 @@
   <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -756,16 +756,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="5"/>
+      <c r="B1" s="3"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="8" t="s">
         <v>20</v>
       </c>
     </row>
@@ -841,218 +841,221 @@
         <v>15</v>
       </c>
     </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="C14" s="4"/>
+    </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A15" s="2" t="s">
+      <c r="A15" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B15" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C15" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="D15" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="E15" s="1" t="s">
+      <c r="E15" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="F15" s="1" t="s">
+      <c r="F15" s="5" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
+      <c r="A16" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="C16" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="D16" s="4" t="s">
+      <c r="D16" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="E16" s="4" t="s">
+      <c r="E16" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="F16" t="s">
+      <c r="F16" s="6" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
+      <c r="A17" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B17" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="C17" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="D17" s="4" t="s">
+      <c r="D17" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="E17" s="4" t="s">
+      <c r="E17" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="F17" t="s">
+      <c r="F17" s="6" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
+      <c r="A18" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="B18" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="C18" s="4" t="s">
+      <c r="C18" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D18" s="4" t="s">
+      <c r="D18" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="E18" s="4" t="s">
+      <c r="E18" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="F18" t="s">
+      <c r="F18" s="6" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
+      <c r="A19" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="B19" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="C19" s="4" t="s">
+      <c r="C19" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="D19" s="4" t="s">
+      <c r="D19" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="E19" s="4" t="s">
+      <c r="E19" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="F19" t="s">
+      <c r="F19" s="6" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A20" t="s">
+      <c r="A20" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="B20" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="C20" s="4" t="s">
+      <c r="C20" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="D20" s="4" t="s">
+      <c r="D20" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="E20" s="4" t="s">
+      <c r="E20" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="F20" t="s">
+      <c r="F20" s="6" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A21" t="s">
+      <c r="A21" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="B21" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="C21" s="4" t="s">
+      <c r="C21" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="D21" s="4" t="s">
+      <c r="D21" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="E21" s="4" t="s">
+      <c r="E21" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="F21" t="s">
+      <c r="F21" s="6" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A22" t="s">
+      <c r="A22" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="B22" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="C22" s="4" t="s">
+      <c r="C22" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="D22" s="4" t="s">
+      <c r="D22" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="E22" s="4" t="s">
+      <c r="E22" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="F22" t="s">
+      <c r="F22" s="6" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A23" t="s">
+      <c r="A23" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="B23" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="C23" s="4" t="s">
+      <c r="C23" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="D23" s="4" t="s">
+      <c r="D23" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="E23" s="4" t="s">
+      <c r="E23" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="F23" t="s">
+      <c r="F23" s="6" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A24" t="s">
+      <c r="A24" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B24" s="3" t="s">
+      <c r="B24" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="C24" s="4" t="s">
+      <c r="C24" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="D24" s="4" t="s">
+      <c r="D24" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="E24" s="4" t="s">
+      <c r="E24" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="F24" t="s">
+      <c r="F24" s="6" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B25" s="3"/>
-      <c r="C25" s="4"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="4"/>
+      <c r="B25" s="1"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:B1"/>
   </mergeCells>
   <conditionalFormatting sqref="B3:B11">
-    <cfRule type="uniqueValues" dxfId="0" priority="1"/>
+    <cfRule type="uniqueValues" dxfId="9" priority="1"/>
   </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="A4" r:id="rId1" display="https://github.com/gaurav809" xr:uid="{9F0146CC-50CC-4F73-8935-41CD22CA3C83}"/>

--- a/docs/GROUP - C Weekly Progress Report.xlsx
+++ b/docs/GROUP - C Weekly Progress Report.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\cardiovascular-disease-prediction\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9B611FB-BEB1-4F2A-BECB-9D9BC01D6189}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FECB4690-F1F1-410C-BDFA-766E260F1CAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{8223AA31-6659-428F-A36B-A92BFE678B6C}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="74">
   <si>
     <t>Members</t>
   </si>
@@ -234,6 +234,30 @@
   </si>
   <si>
     <t>SETTING UP MAIN.PY | MODULARIZATION</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LOGISTIC REGRESSION </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RANDOM FOREST </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RANDOM FOREST  </t>
+  </si>
+  <si>
+    <t>CODE CLEANING | RANDOM FOREST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CODE CLEANING | SVM </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SVM </t>
+  </si>
+  <si>
+    <t>SVM</t>
+  </si>
+  <si>
+    <t>Week - 9</t>
   </si>
 </sst>
 </file>
@@ -283,17 +307,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -309,11 +324,24 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="10">
+  <dxfs count="11">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -355,6 +383,9 @@
       <alignment horizontal="left" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <font>
         <b/>
         <i val="0"/>
@@ -373,16 +404,6 @@
       </font>
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -397,22 +418,26 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D57AB53B-F699-4696-B86A-BE5D01D4904D}" name="Table1" displayName="Table1" ref="A15:F24" totalsRowShown="0" headerRowDxfId="8" dataDxfId="1">
-  <autoFilter ref="A15:F24" xr:uid="{D57AB53B-F699-4696-B86A-BE5D01D4904D}"/>
-  <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{ED33A48B-D1CE-41CD-8CC6-34812A592555}" name="Members" dataDxfId="7"/>
-    <tableColumn id="2" xr3:uid="{FDB5DA1A-7203-4A45-8FA8-E99AF10F1B82}" name="Week 1-3" dataDxfId="6"/>
-    <tableColumn id="3" xr3:uid="{2CC5A466-7EB6-4634-8895-952B59F7A66E}" name="Week - 4" dataDxfId="5"/>
-    <tableColumn id="4" xr3:uid="{E40FD174-8A88-45E3-A0CC-689EF08CFC0D}" name="Week-5" dataDxfId="4"/>
-    <tableColumn id="5" xr3:uid="{FDEE3588-2152-4E62-80C0-6D232F7A0ECE}" name="Week - 6" dataDxfId="3"/>
-    <tableColumn id="6" xr3:uid="{055F4438-72ED-4FC2-9ED7-A3D45A9258D5}" name="Week - 7" dataDxfId="2"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D57AB53B-F699-4696-B86A-BE5D01D4904D}" name="Table1" displayName="Table1" ref="A15:G24" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9">
+  <autoFilter ref="A15:G24" xr:uid="{D57AB53B-F699-4696-B86A-BE5D01D4904D}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A16:G24">
+    <sortCondition ref="A15:A24"/>
+  </sortState>
+  <tableColumns count="7">
+    <tableColumn id="1" xr3:uid="{ED33A48B-D1CE-41CD-8CC6-34812A592555}" name="Members" dataDxfId="8"/>
+    <tableColumn id="2" xr3:uid="{FDB5DA1A-7203-4A45-8FA8-E99AF10F1B82}" name="Week 1-3" dataDxfId="7"/>
+    <tableColumn id="3" xr3:uid="{2CC5A466-7EB6-4634-8895-952B59F7A66E}" name="Week - 4" dataDxfId="6"/>
+    <tableColumn id="4" xr3:uid="{E40FD174-8A88-45E3-A0CC-689EF08CFC0D}" name="Week-5" dataDxfId="5"/>
+    <tableColumn id="5" xr3:uid="{FDEE3588-2152-4E62-80C0-6D232F7A0ECE}" name="Week - 6" dataDxfId="4"/>
+    <tableColumn id="6" xr3:uid="{055F4438-72ED-4FC2-9ED7-A3D45A9258D5}" name="Week - 7" dataDxfId="3"/>
+    <tableColumn id="7" xr3:uid="{9344000E-B16C-4BB9-875A-8497E3935AE5}" name="Week - 9" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{D6312D3B-786A-47CE-BE6B-AD57DB5CA6C6}" name="Table3" displayName="Table3" ref="A2:B11" totalsRowShown="0" headerRowDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{D6312D3B-786A-47CE-BE6B-AD57DB5CA6C6}" name="Table3" displayName="Table3" ref="A2:B11" totalsRowShown="0" headerRowDxfId="1">
   <autoFilter ref="A2:B11" xr:uid="{D6312D3B-786A-47CE-BE6B-AD57DB5CA6C6}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{B2CE2999-A66A-4FBA-B83D-33D32E7E301E}" name="Members"/>
@@ -739,37 +764,38 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{964F5DAF-D7EF-4C3F-9A9D-DD7862803C73}">
-  <dimension ref="A1:F25"/>
+  <dimension ref="A1:G24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="40.54296875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="35.54296875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="49.36328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="62.453125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="57.36328125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="47.08984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.08984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36.36328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="52.36328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="64.90625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="58.90625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="49.08984375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="36.36328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="3"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A2" s="8" t="s">
+      <c r="B1" s="6"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="5" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -777,7 +803,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -785,7 +811,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -793,7 +819,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -801,7 +827,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -809,7 +835,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -817,7 +843,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -825,7 +851,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -833,7 +859,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>14</v>
       </c>
@@ -841,229 +867,253 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="C14" s="4"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A15" s="5" t="s">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="C14" s="1"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A15" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B15" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="C15" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D15" s="5" t="s">
+      <c r="D15" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E15" s="5" t="s">
+      <c r="E15" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="F15" s="5" t="s">
+      <c r="F15" s="2" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A16" s="6" t="s">
+      <c r="G15" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A16" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A18" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A19" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A20" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B16" s="7" t="s">
+      <c r="B20" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C16" s="7" t="s">
+      <c r="C20" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="D16" s="7" t="s">
+      <c r="D20" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="E16" s="7" t="s">
+      <c r="E20" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="F16" s="6" t="s">
+      <c r="F20" s="3" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A17" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="B17" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="C17" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="D17" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="F17" s="6" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A18" s="6" t="s">
+      <c r="G20" s="4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="G21" s="4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A22" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A23" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B18" s="7" t="s">
+      <c r="B23" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C18" s="7" t="s">
+      <c r="C23" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="D18" s="7" t="s">
+      <c r="D23" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="E18" s="7" t="s">
+      <c r="E23" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="F18" s="6" t="s">
+      <c r="F23" s="3" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A19" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B19" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="C19" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="D19" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="F19" s="6" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A20" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B20" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="C20" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="D20" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="F20" s="6" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A21" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="C21" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="D21" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="F21" s="6" t="s">
+      <c r="G23" s="4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A24" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="F24" s="3" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A22" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B22" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="C22" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="D22" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="E22" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="F22" s="6" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A23" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B23" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="C23" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="D23" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="E23" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="F23" s="6" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A24" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B24" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="C24" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="D24" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="F24" s="6" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B25" s="1"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
+      <c r="G24" s="4" t="s">
+        <v>66</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:B1"/>
   </mergeCells>
   <conditionalFormatting sqref="B3:B11">
-    <cfRule type="uniqueValues" dxfId="9" priority="1"/>
+    <cfRule type="uniqueValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="A4" r:id="rId1" display="https://github.com/gaurav809" xr:uid="{9F0146CC-50CC-4F73-8935-41CD22CA3C83}"/>
     <hyperlink ref="A5" r:id="rId2" display="https://github.com/tirth-patel01" xr:uid="{72DD30BD-5407-4824-AFB9-664AE4F9B048}"/>
     <hyperlink ref="A11" r:id="rId3" display="https://github.com/amannain122" xr:uid="{1AC88A5A-887D-428B-92A3-69F80D6CA6FB}"/>
-    <hyperlink ref="A17" r:id="rId4" display="https://github.com/gaurav809" xr:uid="{BF272794-3603-44A0-B19F-13312A27B917}"/>
-    <hyperlink ref="A18" r:id="rId5" display="https://github.com/tirth-patel01" xr:uid="{98C89845-5CF5-43A5-80B5-F25DF17B3EC3}"/>
-    <hyperlink ref="A24" r:id="rId6" display="https://github.com/amannain122" xr:uid="{8D7EB5B3-F8B7-4DCE-B367-2B5BB4254AE5}"/>
+    <hyperlink ref="A18" r:id="rId4" display="https://github.com/gaurav809" xr:uid="{BF272794-3603-44A0-B19F-13312A27B917}"/>
+    <hyperlink ref="A23" r:id="rId5" display="https://github.com/tirth-patel01" xr:uid="{98C89845-5CF5-43A5-80B5-F25DF17B3EC3}"/>
+    <hyperlink ref="A16" r:id="rId6" display="https://github.com/amannain122" xr:uid="{8D7EB5B3-F8B7-4DCE-B367-2B5BB4254AE5}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="2">

--- a/docs/GROUP - C Weekly Progress Report.xlsx
+++ b/docs/GROUP - C Weekly Progress Report.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\cardiovascular-disease-prediction\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FECB4690-F1F1-410C-BDFA-766E260F1CAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B713AA3D-9FFC-402B-A218-FA955051CB83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{8223AA31-6659-428F-A36B-A92BFE678B6C}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="81">
   <si>
     <t>Members</t>
   </si>
@@ -258,6 +258,27 @@
   </si>
   <si>
     <t>Week - 9</t>
+  </si>
+  <si>
+    <t>Week - 10</t>
+  </si>
+  <si>
+    <t>NAÏVE BAYES AND LINEAR SVM</t>
+  </si>
+  <si>
+    <t>KNN</t>
+  </si>
+  <si>
+    <t>GBM AND XGBOOST AND CLASSES</t>
+  </si>
+  <si>
+    <t>XGBOOST AND LIGHTGBM AND CLASSES</t>
+  </si>
+  <si>
+    <t>DECISION TREES AND KNN</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -307,7 +328,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -327,11 +348,20 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="11">
+  <dxfs count="12">
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -418,26 +448,27 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D57AB53B-F699-4696-B86A-BE5D01D4904D}" name="Table1" displayName="Table1" ref="A15:G24" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9">
-  <autoFilter ref="A15:G24" xr:uid="{D57AB53B-F699-4696-B86A-BE5D01D4904D}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D57AB53B-F699-4696-B86A-BE5D01D4904D}" name="Table1" displayName="Table1" ref="A15:H24" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
+  <autoFilter ref="A15:H24" xr:uid="{D57AB53B-F699-4696-B86A-BE5D01D4904D}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A16:G24">
     <sortCondition ref="A15:A24"/>
   </sortState>
-  <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{ED33A48B-D1CE-41CD-8CC6-34812A592555}" name="Members" dataDxfId="8"/>
-    <tableColumn id="2" xr3:uid="{FDB5DA1A-7203-4A45-8FA8-E99AF10F1B82}" name="Week 1-3" dataDxfId="7"/>
-    <tableColumn id="3" xr3:uid="{2CC5A466-7EB6-4634-8895-952B59F7A66E}" name="Week - 4" dataDxfId="6"/>
-    <tableColumn id="4" xr3:uid="{E40FD174-8A88-45E3-A0CC-689EF08CFC0D}" name="Week-5" dataDxfId="5"/>
-    <tableColumn id="5" xr3:uid="{FDEE3588-2152-4E62-80C0-6D232F7A0ECE}" name="Week - 6" dataDxfId="4"/>
-    <tableColumn id="6" xr3:uid="{055F4438-72ED-4FC2-9ED7-A3D45A9258D5}" name="Week - 7" dataDxfId="3"/>
-    <tableColumn id="7" xr3:uid="{9344000E-B16C-4BB9-875A-8497E3935AE5}" name="Week - 9" dataDxfId="2"/>
+  <tableColumns count="8">
+    <tableColumn id="1" xr3:uid="{ED33A48B-D1CE-41CD-8CC6-34812A592555}" name="Members" dataDxfId="9"/>
+    <tableColumn id="2" xr3:uid="{FDB5DA1A-7203-4A45-8FA8-E99AF10F1B82}" name="Week 1-3" dataDxfId="8"/>
+    <tableColumn id="3" xr3:uid="{2CC5A466-7EB6-4634-8895-952B59F7A66E}" name="Week - 4" dataDxfId="7"/>
+    <tableColumn id="4" xr3:uid="{E40FD174-8A88-45E3-A0CC-689EF08CFC0D}" name="Week-5" dataDxfId="6"/>
+    <tableColumn id="5" xr3:uid="{FDEE3588-2152-4E62-80C0-6D232F7A0ECE}" name="Week - 6" dataDxfId="5"/>
+    <tableColumn id="6" xr3:uid="{055F4438-72ED-4FC2-9ED7-A3D45A9258D5}" name="Week - 7" dataDxfId="4"/>
+    <tableColumn id="7" xr3:uid="{9344000E-B16C-4BB9-875A-8497E3935AE5}" name="Week - 9" dataDxfId="3"/>
+    <tableColumn id="8" xr3:uid="{0D15DCEC-B2C7-48FE-B361-91B8FDB7DAE3}" name="Week - 10" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{D6312D3B-786A-47CE-BE6B-AD57DB5CA6C6}" name="Table3" displayName="Table3" ref="A2:B11" totalsRowShown="0" headerRowDxfId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{D6312D3B-786A-47CE-BE6B-AD57DB5CA6C6}" name="Table3" displayName="Table3" ref="A2:B11" totalsRowShown="0" headerRowDxfId="2">
   <autoFilter ref="A2:B11" xr:uid="{D6312D3B-786A-47CE-BE6B-AD57DB5CA6C6}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{B2CE2999-A66A-4FBA-B83D-33D32E7E301E}" name="Members"/>
@@ -764,10 +795,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{964F5DAF-D7EF-4C3F-9A9D-DD7862803C73}">
-  <dimension ref="A1:G24"/>
+  <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -779,15 +810,16 @@
     <col min="5" max="5" width="58.90625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="49.08984375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="36.36328125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="35.36328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
         <v>19</v>
       </c>
       <c r="B1" s="6"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
@@ -795,7 +827,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -803,7 +835,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -811,7 +843,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -819,7 +851,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -827,7 +859,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -835,7 +867,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -843,7 +875,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -851,7 +883,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -859,7 +891,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>14</v>
       </c>
@@ -867,10 +899,10 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="C14" s="1"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
         <v>0</v>
       </c>
@@ -892,8 +924,11 @@
       <c r="G15" s="2" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H15" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A16" s="3" t="s">
         <v>14</v>
       </c>
@@ -915,8 +950,11 @@
       <c r="G16" s="4" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H16" s="4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A17" s="3" t="s">
         <v>5</v>
       </c>
@@ -938,8 +976,11 @@
       <c r="G17" s="4" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H17" s="4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A18" s="3" t="s">
         <v>2</v>
       </c>
@@ -961,8 +1002,11 @@
       <c r="G18" s="4" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H18" s="4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A19" s="3" t="s">
         <v>7</v>
       </c>
@@ -984,8 +1028,11 @@
       <c r="G19" s="4" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H19" s="4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A20" s="3" t="s">
         <v>1</v>
       </c>
@@ -1007,8 +1054,11 @@
       <c r="G20" s="4" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H20" s="4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A21" s="3" t="s">
         <v>8</v>
       </c>
@@ -1030,8 +1080,11 @@
       <c r="G21" s="4" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H21" s="4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A22" s="3" t="s">
         <v>12</v>
       </c>
@@ -1053,59 +1106,66 @@
       <c r="G22" s="4" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A23" s="3" t="s">
+      <c r="H22" s="4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A23" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B23" s="4" t="s">
+      <c r="B23" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="C23" s="4" t="s">
+      <c r="C23" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="D23" s="4" t="s">
+      <c r="D23" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="E23" s="4" t="s">
+      <c r="E23" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="F23" s="3" t="s">
+      <c r="F23" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="G23" s="4" t="s">
+      <c r="G23" s="8" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A24" s="3" t="s">
+      <c r="H23" s="8" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A24" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B24" s="4" t="s">
+      <c r="B24" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="C24" s="4" t="s">
+      <c r="C24" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="D24" s="4" t="s">
+      <c r="D24" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="E24" s="4" t="s">
+      <c r="E24" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="F24" s="3" t="s">
+      <c r="F24" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="G24" s="4" t="s">
-        <v>66</v>
-      </c>
+      <c r="G24" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="H24" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:B1"/>
   </mergeCells>
   <conditionalFormatting sqref="B3:B11">
-    <cfRule type="uniqueValues" dxfId="0" priority="1"/>
+    <cfRule type="uniqueValues" dxfId="1" priority="1"/>
   </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="A4" r:id="rId1" display="https://github.com/gaurav809" xr:uid="{9F0146CC-50CC-4F73-8935-41CD22CA3C83}"/>

--- a/docs/GROUP - C Weekly Progress Report.xlsx
+++ b/docs/GROUP - C Weekly Progress Report.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\cardiovascular-disease-prediction\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B713AA3D-9FFC-402B-A218-FA955051CB83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{420DB037-E333-4E52-A337-548A8A9BA6B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{8223AA31-6659-428F-A36B-A92BFE678B6C}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="76">
   <si>
     <t>Members</t>
   </si>
@@ -131,9 +131,6 @@
     <t>GIT CONTROLS</t>
   </si>
   <si>
-    <t>DATA CLEANING AND GIT CONTROLS</t>
-  </si>
-  <si>
     <t>FEATURE KNOWLEDGE</t>
   </si>
   <si>
@@ -158,9 +155,6 @@
     <t>DATA CLEANING - alco column | VERSION CONTROL</t>
   </si>
   <si>
-    <t>DATA CLEANING - height column | VERSION CONTROL</t>
-  </si>
-  <si>
     <t>DATA CLEANING - physical activity column | SLIDES</t>
   </si>
   <si>
@@ -185,9 +179,6 @@
     <t>DATA Exploration - age column | TEST/TRAIN DATA SPLIT</t>
   </si>
   <si>
-    <t>DATA Exploration - alco column</t>
-  </si>
-  <si>
     <t>DATA Exploration - bp_high column</t>
   </si>
   <si>
@@ -206,9 +197,6 @@
     <t>DATA PREP - SCALING - minMAX SCALING</t>
   </si>
   <si>
-    <t>MULTI COLLINEARITY - Scaled Data</t>
-  </si>
-  <si>
     <t>SCALING - Scaling without Binary columns</t>
   </si>
   <si>
@@ -276,9 +264,6 @@
   </si>
   <si>
     <t>DECISION TREES AND KNN</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -345,23 +330,20 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="12">
-    <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -390,6 +372,9 @@
         <scheme val="minor"/>
       </font>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -448,10 +433,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D57AB53B-F699-4696-B86A-BE5D01D4904D}" name="Table1" displayName="Table1" ref="A15:H24" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
-  <autoFilter ref="A15:H24" xr:uid="{D57AB53B-F699-4696-B86A-BE5D01D4904D}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A16:G24">
-    <sortCondition ref="A15:A24"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D57AB53B-F699-4696-B86A-BE5D01D4904D}" name="Table1" displayName="Table1" ref="A15:H23" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
+  <autoFilter ref="A15:H23" xr:uid="{D57AB53B-F699-4696-B86A-BE5D01D4904D}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A16:G23">
+    <sortCondition ref="A15:A23"/>
   </sortState>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{ED33A48B-D1CE-41CD-8CC6-34812A592555}" name="Members" dataDxfId="9"/>
@@ -461,14 +446,14 @@
     <tableColumn id="5" xr3:uid="{FDEE3588-2152-4E62-80C0-6D232F7A0ECE}" name="Week - 6" dataDxfId="5"/>
     <tableColumn id="6" xr3:uid="{055F4438-72ED-4FC2-9ED7-A3D45A9258D5}" name="Week - 7" dataDxfId="4"/>
     <tableColumn id="7" xr3:uid="{9344000E-B16C-4BB9-875A-8497E3935AE5}" name="Week - 9" dataDxfId="3"/>
-    <tableColumn id="8" xr3:uid="{0D15DCEC-B2C7-48FE-B361-91B8FDB7DAE3}" name="Week - 10" dataDxfId="0"/>
+    <tableColumn id="8" xr3:uid="{0D15DCEC-B2C7-48FE-B361-91B8FDB7DAE3}" name="Week - 10" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{D6312D3B-786A-47CE-BE6B-AD57DB5CA6C6}" name="Table3" displayName="Table3" ref="A2:B11" totalsRowShown="0" headerRowDxfId="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{D6312D3B-786A-47CE-BE6B-AD57DB5CA6C6}" name="Table3" displayName="Table3" ref="A2:B11" totalsRowShown="0" headerRowDxfId="1">
   <autoFilter ref="A2:B11" xr:uid="{D6312D3B-786A-47CE-BE6B-AD57DB5CA6C6}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{B2CE2999-A66A-4FBA-B83D-33D32E7E301E}" name="Members"/>
@@ -795,10 +780,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{964F5DAF-D7EF-4C3F-9A9D-DD7862803C73}">
-  <dimension ref="A1:H24"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -814,10 +799,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="6"/>
+      <c r="B1" s="8"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
@@ -922,10 +907,10 @@
         <v>25</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.35">
@@ -933,25 +918,25 @@
         <v>14</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="H16" s="4" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.35">
@@ -962,22 +947,22 @@
         <v>29</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.35">
@@ -988,22 +973,22 @@
         <v>27</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="H18" s="4" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.35">
@@ -1014,22 +999,22 @@
         <v>27</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="H19" s="4" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.35">
@@ -1040,22 +1025,22 @@
         <v>26</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="H20" s="4" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.35">
@@ -1066,22 +1051,22 @@
         <v>30</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="H21" s="4" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.35">
@@ -1089,83 +1074,59 @@
         <v>12</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D22" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="H22" s="4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A23" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="E23" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="E22" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="G22" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="H22" s="4" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A23" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B23" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="C23" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="D23" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="E23" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="G23" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="H23" s="8" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A24" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B24" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="C24" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="D24" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="E24" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="G24" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="H24" s="8"/>
+      <c r="F23" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="H23" s="7" t="s">
+        <v>68</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:B1"/>
   </mergeCells>
   <conditionalFormatting sqref="B3:B11">
-    <cfRule type="uniqueValues" dxfId="1" priority="1"/>
+    <cfRule type="uniqueValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="A4" r:id="rId1" display="https://github.com/gaurav809" xr:uid="{9F0146CC-50CC-4F73-8935-41CD22CA3C83}"/>

--- a/docs/GROUP - C Weekly Progress Report.xlsx
+++ b/docs/GROUP - C Weekly Progress Report.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\cardiovascular-disease-prediction\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{420DB037-E333-4E52-A337-548A8A9BA6B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CC61C52-833D-4338-B183-95C5F7F4B01A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{8223AA31-6659-428F-A36B-A92BFE678B6C}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="80">
   <si>
     <t>Members</t>
   </si>
@@ -68,12 +68,6 @@
     <t xml:space="preserve"> https://github.com/rutul7802</t>
   </si>
   <si>
-    <t xml:space="preserve">YETUNDE SHITTU </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> https://github.com/whyteeth</t>
-  </si>
-  <si>
     <t xml:space="preserve">SWETHA TANIKONDA </t>
   </si>
   <si>
@@ -264,6 +258,24 @@
   </si>
   <si>
     <t>DECISION TREES AND KNN</t>
+  </si>
+  <si>
+    <t>MODEL TUNING - DATA DUPLICATION, GRIDSEARCHCV</t>
+  </si>
+  <si>
+    <t>SLIDES AND PPT</t>
+  </si>
+  <si>
+    <t>Week - 11</t>
+  </si>
+  <si>
+    <t>XGBOOST PARAMETER TUNING</t>
+  </si>
+  <si>
+    <t>LOGISTIC REGRESSION PARAMETER TUNING</t>
+  </si>
+  <si>
+    <t>GBM PARAMETER TUNING</t>
   </si>
 </sst>
 </file>
@@ -343,7 +355,10 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="12">
+  <dxfs count="13">
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -433,28 +448,32 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D57AB53B-F699-4696-B86A-BE5D01D4904D}" name="Table1" displayName="Table1" ref="A15:H23" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
-  <autoFilter ref="A15:H23" xr:uid="{D57AB53B-F699-4696-B86A-BE5D01D4904D}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D57AB53B-F699-4696-B86A-BE5D01D4904D}" name="Table1" displayName="Table1" ref="A15:I23" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11">
+  <autoFilter ref="A15:I23" xr:uid="{D57AB53B-F699-4696-B86A-BE5D01D4904D}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A16:G23">
     <sortCondition ref="A15:A23"/>
   </sortState>
-  <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{ED33A48B-D1CE-41CD-8CC6-34812A592555}" name="Members" dataDxfId="9"/>
-    <tableColumn id="2" xr3:uid="{FDB5DA1A-7203-4A45-8FA8-E99AF10F1B82}" name="Week 1-3" dataDxfId="8"/>
-    <tableColumn id="3" xr3:uid="{2CC5A466-7EB6-4634-8895-952B59F7A66E}" name="Week - 4" dataDxfId="7"/>
-    <tableColumn id="4" xr3:uid="{E40FD174-8A88-45E3-A0CC-689EF08CFC0D}" name="Week-5" dataDxfId="6"/>
-    <tableColumn id="5" xr3:uid="{FDEE3588-2152-4E62-80C0-6D232F7A0ECE}" name="Week - 6" dataDxfId="5"/>
-    <tableColumn id="6" xr3:uid="{055F4438-72ED-4FC2-9ED7-A3D45A9258D5}" name="Week - 7" dataDxfId="4"/>
-    <tableColumn id="7" xr3:uid="{9344000E-B16C-4BB9-875A-8497E3935AE5}" name="Week - 9" dataDxfId="3"/>
-    <tableColumn id="8" xr3:uid="{0D15DCEC-B2C7-48FE-B361-91B8FDB7DAE3}" name="Week - 10" dataDxfId="2"/>
+  <tableColumns count="9">
+    <tableColumn id="1" xr3:uid="{ED33A48B-D1CE-41CD-8CC6-34812A592555}" name="Members" dataDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{FDB5DA1A-7203-4A45-8FA8-E99AF10F1B82}" name="Week 1-3" dataDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{2CC5A466-7EB6-4634-8895-952B59F7A66E}" name="Week - 4" dataDxfId="8"/>
+    <tableColumn id="4" xr3:uid="{E40FD174-8A88-45E3-A0CC-689EF08CFC0D}" name="Week-5" dataDxfId="7"/>
+    <tableColumn id="5" xr3:uid="{FDEE3588-2152-4E62-80C0-6D232F7A0ECE}" name="Week - 6" dataDxfId="6"/>
+    <tableColumn id="6" xr3:uid="{055F4438-72ED-4FC2-9ED7-A3D45A9258D5}" name="Week - 7" dataDxfId="5"/>
+    <tableColumn id="7" xr3:uid="{9344000E-B16C-4BB9-875A-8497E3935AE5}" name="Week - 9" dataDxfId="4"/>
+    <tableColumn id="8" xr3:uid="{0D15DCEC-B2C7-48FE-B361-91B8FDB7DAE3}" name="Week - 10" dataDxfId="3"/>
+    <tableColumn id="9" xr3:uid="{3E681203-D626-41A0-A13C-41B528BA7F22}" name="Week - 11" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{D6312D3B-786A-47CE-BE6B-AD57DB5CA6C6}" name="Table3" displayName="Table3" ref="A2:B11" totalsRowShown="0" headerRowDxfId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{D6312D3B-786A-47CE-BE6B-AD57DB5CA6C6}" name="Table3" displayName="Table3" ref="A2:B11" totalsRowShown="0" headerRowDxfId="2">
   <autoFilter ref="A2:B11" xr:uid="{D6312D3B-786A-47CE-BE6B-AD57DB5CA6C6}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:B11">
+    <sortCondition ref="A2:A11"/>
+  </sortState>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{B2CE2999-A66A-4FBA-B83D-33D32E7E301E}" name="Members"/>
     <tableColumn id="2" xr3:uid="{E02ACA79-C341-474E-A4B4-3A9E9FE07FBC}" name="GitHub"/>
@@ -780,10 +799,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{964F5DAF-D7EF-4C3F-9A9D-DD7862803C73}">
-  <dimension ref="A1:H23"/>
+  <dimension ref="A1:I23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+    <sheetView tabSelected="1" topLeftCell="G4" zoomScale="83" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -796,63 +815,64 @@
     <col min="6" max="6" width="49.08984375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="36.36328125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="35.36328125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="61.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B1" s="8"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
         <v>1</v>
       </c>
-      <c r="B3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>7</v>
-      </c>
       <c r="B7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -860,7 +880,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -868,270 +888,287 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="B10" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>14</v>
-      </c>
-      <c r="B11" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="C14" s="1"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B15" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D15" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="E15" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="F15" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E15" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>25</v>
-      </c>
       <c r="G15" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+        <v>68</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H16" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="I16" s="4" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A17" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
+        <v>62</v>
+      </c>
+      <c r="I17" s="4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A18" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E18" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="F18" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="F18" s="3" t="s">
-        <v>57</v>
-      </c>
       <c r="G18" s="4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H18" s="4" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
+        <v>69</v>
+      </c>
+      <c r="I18" s="4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A19" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="H19" s="4" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
+        <v>70</v>
+      </c>
+      <c r="I19" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A20" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="H20" s="4" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
+        <v>71</v>
+      </c>
+      <c r="I20" s="4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A21" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="H21" s="4" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
+        <v>65</v>
+      </c>
+      <c r="I21" s="7" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A22" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H22" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="I22" s="4" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A23" s="6" t="s">
         <v>4</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F23" s="6" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="H23" s="7" t="s">
-        <v>68</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="I23" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:B1"/>
   </mergeCells>
-  <conditionalFormatting sqref="B3:B11">
-    <cfRule type="uniqueValues" dxfId="0" priority="1"/>
+  <conditionalFormatting sqref="B3:B10">
+    <cfRule type="uniqueValues" dxfId="1" priority="1"/>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="A4" r:id="rId1" display="https://github.com/gaurav809" xr:uid="{9F0146CC-50CC-4F73-8935-41CD22CA3C83}"/>
-    <hyperlink ref="A5" r:id="rId2" display="https://github.com/tirth-patel01" xr:uid="{72DD30BD-5407-4824-AFB9-664AE4F9B048}"/>
-    <hyperlink ref="A11" r:id="rId3" display="https://github.com/amannain122" xr:uid="{1AC88A5A-887D-428B-92A3-69F80D6CA6FB}"/>
+    <hyperlink ref="A5" r:id="rId1" display="https://github.com/gaurav809" xr:uid="{9F0146CC-50CC-4F73-8935-41CD22CA3C83}"/>
+    <hyperlink ref="A10" r:id="rId2" display="https://github.com/tirth-patel01" xr:uid="{72DD30BD-5407-4824-AFB9-664AE4F9B048}"/>
+    <hyperlink ref="A3" r:id="rId3" display="https://github.com/amannain122" xr:uid="{1AC88A5A-887D-428B-92A3-69F80D6CA6FB}"/>
     <hyperlink ref="A18" r:id="rId4" display="https://github.com/gaurav809" xr:uid="{BF272794-3603-44A0-B19F-13312A27B917}"/>
     <hyperlink ref="A23" r:id="rId5" display="https://github.com/tirth-patel01" xr:uid="{98C89845-5CF5-43A5-80B5-F25DF17B3EC3}"/>
     <hyperlink ref="A16" r:id="rId6" display="https://github.com/amannain122" xr:uid="{8D7EB5B3-F8B7-4DCE-B367-2B5BB4254AE5}"/>

--- a/docs/GROUP - C Weekly Progress Report.xlsx
+++ b/docs/GROUP - C Weekly Progress Report.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\cardiovascular-disease-prediction\docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tirth\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{420DB037-E333-4E52-A337-548A8A9BA6B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD13FE3D-8D30-4270-BFD2-CB7F9E4104F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{8223AA31-6659-428F-A36B-A92BFE678B6C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{8223AA31-6659-428F-A36B-A92BFE678B6C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="81">
   <si>
     <t>Members</t>
   </si>
@@ -68,12 +68,6 @@
     <t xml:space="preserve"> https://github.com/rutul7802</t>
   </si>
   <si>
-    <t xml:space="preserve">YETUNDE SHITTU </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> https://github.com/whyteeth</t>
-  </si>
-  <si>
     <t xml:space="preserve">SWETHA TANIKONDA </t>
   </si>
   <si>
@@ -264,6 +258,27 @@
   </si>
   <si>
     <t>DECISION TREES AND KNN</t>
+  </si>
+  <si>
+    <t>MODEL TUNING - DATA DUPLICATION, GRIDSEARCHCV</t>
+  </si>
+  <si>
+    <t>SLIDES AND PPT</t>
+  </si>
+  <si>
+    <t>Week - 11</t>
+  </si>
+  <si>
+    <t>XGBOOST PARAMETER TUNING</t>
+  </si>
+  <si>
+    <t>LOGISTIC REGRESSION PARAMETER TUNING</t>
+  </si>
+  <si>
+    <t>GBM PARAMETER TUNING</t>
+  </si>
+  <si>
+    <t>CHANGING IN PARAMETERS TO GET ACCURATE RESULT</t>
   </si>
 </sst>
 </file>
@@ -343,7 +358,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="12">
+  <dxfs count="13">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -380,6 +395,9 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="left" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -433,20 +451,21 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D57AB53B-F699-4696-B86A-BE5D01D4904D}" name="Table1" displayName="Table1" ref="A15:H23" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
-  <autoFilter ref="A15:H23" xr:uid="{D57AB53B-F699-4696-B86A-BE5D01D4904D}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D57AB53B-F699-4696-B86A-BE5D01D4904D}" name="Table1" displayName="Table1" ref="A15:I23" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11">
+  <autoFilter ref="A15:I23" xr:uid="{D57AB53B-F699-4696-B86A-BE5D01D4904D}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A16:G23">
     <sortCondition ref="A15:A23"/>
   </sortState>
-  <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{ED33A48B-D1CE-41CD-8CC6-34812A592555}" name="Members" dataDxfId="9"/>
-    <tableColumn id="2" xr3:uid="{FDB5DA1A-7203-4A45-8FA8-E99AF10F1B82}" name="Week 1-3" dataDxfId="8"/>
-    <tableColumn id="3" xr3:uid="{2CC5A466-7EB6-4634-8895-952B59F7A66E}" name="Week - 4" dataDxfId="7"/>
-    <tableColumn id="4" xr3:uid="{E40FD174-8A88-45E3-A0CC-689EF08CFC0D}" name="Week-5" dataDxfId="6"/>
-    <tableColumn id="5" xr3:uid="{FDEE3588-2152-4E62-80C0-6D232F7A0ECE}" name="Week - 6" dataDxfId="5"/>
-    <tableColumn id="6" xr3:uid="{055F4438-72ED-4FC2-9ED7-A3D45A9258D5}" name="Week - 7" dataDxfId="4"/>
-    <tableColumn id="7" xr3:uid="{9344000E-B16C-4BB9-875A-8497E3935AE5}" name="Week - 9" dataDxfId="3"/>
-    <tableColumn id="8" xr3:uid="{0D15DCEC-B2C7-48FE-B361-91B8FDB7DAE3}" name="Week - 10" dataDxfId="2"/>
+  <tableColumns count="9">
+    <tableColumn id="1" xr3:uid="{ED33A48B-D1CE-41CD-8CC6-34812A592555}" name="Members" dataDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{FDB5DA1A-7203-4A45-8FA8-E99AF10F1B82}" name="Week 1-3" dataDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{2CC5A466-7EB6-4634-8895-952B59F7A66E}" name="Week - 4" dataDxfId="8"/>
+    <tableColumn id="4" xr3:uid="{E40FD174-8A88-45E3-A0CC-689EF08CFC0D}" name="Week-5" dataDxfId="7"/>
+    <tableColumn id="5" xr3:uid="{FDEE3588-2152-4E62-80C0-6D232F7A0ECE}" name="Week - 6" dataDxfId="6"/>
+    <tableColumn id="6" xr3:uid="{055F4438-72ED-4FC2-9ED7-A3D45A9258D5}" name="Week - 7" dataDxfId="5"/>
+    <tableColumn id="7" xr3:uid="{9344000E-B16C-4BB9-875A-8497E3935AE5}" name="Week - 9" dataDxfId="4"/>
+    <tableColumn id="8" xr3:uid="{0D15DCEC-B2C7-48FE-B361-91B8FDB7DAE3}" name="Week - 10" dataDxfId="3"/>
+    <tableColumn id="9" xr3:uid="{3E681203-D626-41A0-A13C-41B528BA7F22}" name="Week - 11" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -455,6 +474,9 @@
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{D6312D3B-786A-47CE-BE6B-AD57DB5CA6C6}" name="Table3" displayName="Table3" ref="A2:B11" totalsRowShown="0" headerRowDxfId="1">
   <autoFilter ref="A2:B11" xr:uid="{D6312D3B-786A-47CE-BE6B-AD57DB5CA6C6}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:B11">
+    <sortCondition ref="A2:A11"/>
+  </sortState>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{B2CE2999-A66A-4FBA-B83D-33D32E7E301E}" name="Members"/>
     <tableColumn id="2" xr3:uid="{E02ACA79-C341-474E-A4B4-3A9E9FE07FBC}" name="GitHub"/>
@@ -780,79 +802,80 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{964F5DAF-D7EF-4C3F-9A9D-DD7862803C73}">
-  <dimension ref="A1:H23"/>
+  <dimension ref="A1:I23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+    <sheetView tabSelected="1" topLeftCell="E13" zoomScale="83" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.08984375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="36.36328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="52.36328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="64.90625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="58.90625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="49.08984375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="36.36328125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="35.36328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="52.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="64.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="58.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="49.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="36.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="35.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="61.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B1" s="8"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
         <v>1</v>
       </c>
-      <c r="B3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>7</v>
-      </c>
       <c r="B7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -860,7 +883,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -868,270 +891,289 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="B10" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>14</v>
-      </c>
-      <c r="B11" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C14" s="1"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B15" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D15" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="E15" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="F15" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E15" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>25</v>
-      </c>
       <c r="G15" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+        <v>68</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H16" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="I16" s="4" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
+        <v>62</v>
+      </c>
+      <c r="I17" s="4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="E18" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="F18" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="F18" s="3" t="s">
-        <v>57</v>
-      </c>
       <c r="G18" s="4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H18" s="4" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
+        <v>69</v>
+      </c>
+      <c r="I18" s="4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="H19" s="4" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
+        <v>70</v>
+      </c>
+      <c r="I19" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="H20" s="4" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
+        <v>71</v>
+      </c>
+      <c r="I20" s="4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="H21" s="4" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
+        <v>65</v>
+      </c>
+      <c r="I21" s="7" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H22" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="I22" s="4" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" s="6" t="s">
         <v>4</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="E23" s="7" t="s">
-        <v>50</v>
+        <v>41</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>53</v>
       </c>
       <c r="F23" s="6" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="H23" s="7" t="s">
-        <v>68</v>
+        <v>66</v>
+      </c>
+      <c r="I23" s="7" t="s">
+        <v>80</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:B1"/>
   </mergeCells>
-  <conditionalFormatting sqref="B3:B11">
+  <conditionalFormatting sqref="B3:B10">
     <cfRule type="uniqueValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="A4" r:id="rId1" display="https://github.com/gaurav809" xr:uid="{9F0146CC-50CC-4F73-8935-41CD22CA3C83}"/>
-    <hyperlink ref="A5" r:id="rId2" display="https://github.com/tirth-patel01" xr:uid="{72DD30BD-5407-4824-AFB9-664AE4F9B048}"/>
-    <hyperlink ref="A11" r:id="rId3" display="https://github.com/amannain122" xr:uid="{1AC88A5A-887D-428B-92A3-69F80D6CA6FB}"/>
+    <hyperlink ref="A5" r:id="rId1" display="https://github.com/gaurav809" xr:uid="{9F0146CC-50CC-4F73-8935-41CD22CA3C83}"/>
+    <hyperlink ref="A10" r:id="rId2" display="https://github.com/tirth-patel01" xr:uid="{72DD30BD-5407-4824-AFB9-664AE4F9B048}"/>
+    <hyperlink ref="A3" r:id="rId3" display="https://github.com/amannain122" xr:uid="{1AC88A5A-887D-428B-92A3-69F80D6CA6FB}"/>
     <hyperlink ref="A18" r:id="rId4" display="https://github.com/gaurav809" xr:uid="{BF272794-3603-44A0-B19F-13312A27B917}"/>
     <hyperlink ref="A23" r:id="rId5" display="https://github.com/tirth-patel01" xr:uid="{98C89845-5CF5-43A5-80B5-F25DF17B3EC3}"/>
     <hyperlink ref="A16" r:id="rId6" display="https://github.com/amannain122" xr:uid="{8D7EB5B3-F8B7-4DCE-B367-2B5BB4254AE5}"/>

--- a/docs/GROUP - C Weekly Progress Report.xlsx
+++ b/docs/GROUP - C Weekly Progress Report.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tirth\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\College\Assignments\Steps\cardiovascular-disease-prediction\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD13FE3D-8D30-4270-BFD2-CB7F9E4104F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEA15D8F-06AF-4629-B8D2-C640D764ABDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{8223AA31-6659-428F-A36B-A92BFE678B6C}"/>
   </bookViews>
@@ -285,7 +285,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -301,8 +301,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -315,6 +322,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -325,8 +338,9 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -346,16 +360,17 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="20% - Accent1" xfId="1" builtinId="30"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="13">
@@ -804,8 +819,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{964F5DAF-D7EF-4C3F-9A9D-DD7862803C73}">
   <dimension ref="A1:I23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E13" zoomScale="83" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="I23" sqref="I23"/>
+    <sheetView tabSelected="1" topLeftCell="F13" zoomScale="83" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -822,10 +837,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="8"/>
+      <c r="B1" s="7"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
@@ -1002,7 +1017,7 @@
       <c r="D18" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="E18" s="7" t="s">
+      <c r="E18" s="8" t="s">
         <v>48</v>
       </c>
       <c r="F18" s="3" t="s">
@@ -1101,7 +1116,7 @@
       <c r="H21" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="I21" s="7" t="s">
+      <c r="I21" s="6" t="s">
         <v>79</v>
       </c>
     </row>
@@ -1135,31 +1150,31 @@
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A23" s="6" t="s">
+      <c r="A23" t="s">
         <v>4</v>
       </c>
-      <c r="B23" s="7" t="s">
+      <c r="B23" t="s">
         <v>26</v>
       </c>
-      <c r="C23" s="7" t="s">
+      <c r="C23" t="s">
         <v>33</v>
       </c>
-      <c r="D23" s="7" t="s">
+      <c r="D23" t="s">
         <v>41</v>
       </c>
-      <c r="E23" s="4" t="s">
+      <c r="E23" t="s">
         <v>53</v>
       </c>
-      <c r="F23" s="6" t="s">
+      <c r="F23" t="s">
         <v>56</v>
       </c>
-      <c r="G23" s="7" t="s">
+      <c r="G23" t="s">
         <v>66</v>
       </c>
-      <c r="H23" s="7" t="s">
+      <c r="H23" t="s">
         <v>66</v>
       </c>
-      <c r="I23" s="7" t="s">
+      <c r="I23" t="s">
         <v>80</v>
       </c>
     </row>

--- a/docs/GROUP - C Weekly Progress Report.xlsx
+++ b/docs/GROUP - C Weekly Progress Report.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\College\Assignments\Steps\cardiovascular-disease-prediction\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CCADABA-AE64-4733-A5AC-95908634F4B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F33E9317-B4A9-4920-906C-B2475D2A6B04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{8223AA31-6659-428F-A36B-A92BFE678B6C}"/>
   </bookViews>
@@ -816,8 +816,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{964F5DAF-D7EF-4C3F-9A9D-DD7862803C73}">
   <dimension ref="A1:I23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F13" zoomScale="83" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="83" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1092,8 +1092,8 @@
       <c r="A21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B21" s="4" t="s">
-        <v>28</v>
+      <c r="B21" t="s">
+        <v>26</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>36</v>
@@ -1150,8 +1150,8 @@
       <c r="A23" t="s">
         <v>4</v>
       </c>
-      <c r="B23" t="s">
-        <v>26</v>
+      <c r="B23" s="4" t="s">
+        <v>28</v>
       </c>
       <c r="C23" t="s">
         <v>33</v>

--- a/docs/GROUP - C Weekly Progress Report.xlsx
+++ b/docs/GROUP - C Weekly Progress Report.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\College\Assignments\Steps\cardiovascular-disease-prediction\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F33E9317-B4A9-4920-906C-B2475D2A6B04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECE33A72-C2A7-4A09-A19A-3ED2DB0C02E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{8223AA31-6659-428F-A36B-A92BFE678B6C}"/>
   </bookViews>
@@ -329,7 +329,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -337,12 +337,49 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </right>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -364,6 +401,12 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -817,7 +860,7 @@
   <dimension ref="A1:I23"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" zoomScale="83" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+      <selection activeCell="A19" sqref="A19:I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -974,31 +1017,31 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="I17" s="4" t="s">
-        <v>77</v>
+        <v>70</v>
+      </c>
+      <c r="I17" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
@@ -1031,32 +1074,32 @@
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A19" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="E19" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="F19" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="G19" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="H19" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="I19" t="s">
-        <v>78</v>
+      <c r="A19" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B19" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="F19" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="G19" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="H19" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="I19" s="10" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
@@ -1147,32 +1190,32 @@
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>4</v>
+      <c r="A23" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C23" t="s">
-        <v>33</v>
-      </c>
-      <c r="D23" t="s">
-        <v>41</v>
-      </c>
-      <c r="E23" t="s">
-        <v>53</v>
-      </c>
-      <c r="F23" t="s">
-        <v>56</v>
-      </c>
-      <c r="G23" t="s">
-        <v>66</v>
-      </c>
-      <c r="H23" t="s">
-        <v>66</v>
-      </c>
-      <c r="I23" t="s">
-        <v>80</v>
+        <v>27</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G23" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="H23" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="I23" s="4" t="s">
+        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -1187,7 +1230,7 @@
     <hyperlink ref="A10" r:id="rId2" display="https://github.com/tirth-patel01" xr:uid="{72DD30BD-5407-4824-AFB9-664AE4F9B048}"/>
     <hyperlink ref="A3" r:id="rId3" display="https://github.com/amannain122" xr:uid="{1AC88A5A-887D-428B-92A3-69F80D6CA6FB}"/>
     <hyperlink ref="A18" r:id="rId4" display="https://github.com/gaurav809" xr:uid="{BF272794-3603-44A0-B19F-13312A27B917}"/>
-    <hyperlink ref="A23" r:id="rId5" display="https://github.com/tirth-patel01" xr:uid="{98C89845-5CF5-43A5-80B5-F25DF17B3EC3}"/>
+    <hyperlink ref="A19" r:id="rId5" display="https://github.com/tirth-patel01" xr:uid="{98C89845-5CF5-43A5-80B5-F25DF17B3EC3}"/>
     <hyperlink ref="A16" r:id="rId6" display="https://github.com/amannain122" xr:uid="{8D7EB5B3-F8B7-4DCE-B367-2B5BB4254AE5}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/docs/GROUP - C Weekly Progress Report.xlsx
+++ b/docs/GROUP - C Weekly Progress Report.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\College\Assignments\Steps\cardiovascular-disease-prediction\docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\cardiovascular-disease-prediction\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECE33A72-C2A7-4A09-A19A-3ED2DB0C02E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4752C897-84D9-402A-958C-2E8371B4FDC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{8223AA31-6659-428F-A36B-A92BFE678B6C}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{8223AA31-6659-428F-A36B-A92BFE678B6C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="90">
   <si>
     <t>Members</t>
   </si>
@@ -279,6 +279,33 @@
   </si>
   <si>
     <t>CHANGING IN PARAMETERS TO GET ACCURATE RESULT</t>
+  </si>
+  <si>
+    <t>Week - 12</t>
+  </si>
+  <si>
+    <t>FEATURE IMPORTANT ANALYSIS</t>
+  </si>
+  <si>
+    <t>PERORMED LIME FOR LOGISTIC REGRESSION, ERRORS YET TO BE RESOLVED</t>
+  </si>
+  <si>
+    <t>PERFORMED LIME FOR GBM, ERRORS YET TO BE RESOLVED</t>
+  </si>
+  <si>
+    <t>PERFORMED LIME FOR LOGISTIC REGRESSION</t>
+  </si>
+  <si>
+    <t>LIME AND RESEARCH ON STREAMLIT FOR VISUALIZATION AND DASHBOARD</t>
+  </si>
+  <si>
+    <t>PREPARED DASHBOARD USING STREAMLIT, TARGET VALUES VISUALIZATION STILL IN PROCESS</t>
+  </si>
+  <si>
+    <t>RANDOM SEARCH AND LIME FOR XGBOOST, WORKED ON RESOLVING OVERFITTING</t>
+  </si>
+  <si>
+    <t>PERFORMED RANDOM SEARCH ON LOGISTIC REGRESSION</t>
   </si>
 </sst>
 </file>
@@ -399,21 +426,25 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="20% - Accent1" xfId="1" builtinId="30"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="13">
+  <dxfs count="14">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -442,6 +473,9 @@
         <scheme val="minor"/>
       </font>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -506,21 +540,22 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D57AB53B-F699-4696-B86A-BE5D01D4904D}" name="Table1" displayName="Table1" ref="A15:I23" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11">
-  <autoFilter ref="A15:I23" xr:uid="{D57AB53B-F699-4696-B86A-BE5D01D4904D}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A16:G23">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D57AB53B-F699-4696-B86A-BE5D01D4904D}" name="Table1" displayName="Table1" ref="A15:J23" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12">
+  <autoFilter ref="A15:J23" xr:uid="{D57AB53B-F699-4696-B86A-BE5D01D4904D}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A16:J23">
     <sortCondition ref="A15:A23"/>
   </sortState>
-  <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{ED33A48B-D1CE-41CD-8CC6-34812A592555}" name="Members" dataDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{FDB5DA1A-7203-4A45-8FA8-E99AF10F1B82}" name="Week 1-3" dataDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{2CC5A466-7EB6-4634-8895-952B59F7A66E}" name="Week - 4" dataDxfId="8"/>
-    <tableColumn id="4" xr3:uid="{E40FD174-8A88-45E3-A0CC-689EF08CFC0D}" name="Week-5" dataDxfId="7"/>
-    <tableColumn id="5" xr3:uid="{FDEE3588-2152-4E62-80C0-6D232F7A0ECE}" name="Week - 6" dataDxfId="6"/>
-    <tableColumn id="6" xr3:uid="{055F4438-72ED-4FC2-9ED7-A3D45A9258D5}" name="Week - 7" dataDxfId="5"/>
-    <tableColumn id="7" xr3:uid="{9344000E-B16C-4BB9-875A-8497E3935AE5}" name="Week - 9" dataDxfId="4"/>
-    <tableColumn id="8" xr3:uid="{0D15DCEC-B2C7-48FE-B361-91B8FDB7DAE3}" name="Week - 10" dataDxfId="3"/>
-    <tableColumn id="9" xr3:uid="{3E681203-D626-41A0-A13C-41B528BA7F22}" name="Week - 11" dataDxfId="2"/>
+  <tableColumns count="10">
+    <tableColumn id="1" xr3:uid="{ED33A48B-D1CE-41CD-8CC6-34812A592555}" name="Members" dataDxfId="11"/>
+    <tableColumn id="2" xr3:uid="{FDB5DA1A-7203-4A45-8FA8-E99AF10F1B82}" name="Week 1-3" dataDxfId="10"/>
+    <tableColumn id="3" xr3:uid="{2CC5A466-7EB6-4634-8895-952B59F7A66E}" name="Week - 4" dataDxfId="9"/>
+    <tableColumn id="4" xr3:uid="{E40FD174-8A88-45E3-A0CC-689EF08CFC0D}" name="Week-5" dataDxfId="8"/>
+    <tableColumn id="5" xr3:uid="{FDEE3588-2152-4E62-80C0-6D232F7A0ECE}" name="Week - 6" dataDxfId="7"/>
+    <tableColumn id="6" xr3:uid="{055F4438-72ED-4FC2-9ED7-A3D45A9258D5}" name="Week - 7" dataDxfId="6"/>
+    <tableColumn id="7" xr3:uid="{9344000E-B16C-4BB9-875A-8497E3935AE5}" name="Week - 9" dataDxfId="5"/>
+    <tableColumn id="8" xr3:uid="{0D15DCEC-B2C7-48FE-B361-91B8FDB7DAE3}" name="Week - 10" dataDxfId="4"/>
+    <tableColumn id="9" xr3:uid="{3E681203-D626-41A0-A13C-41B528BA7F22}" name="Week - 11" dataDxfId="3"/>
+    <tableColumn id="10" xr3:uid="{D18441B6-A521-494D-95BB-7EF4D1D091F8}" name="Week - 12" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -857,32 +892,33 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{964F5DAF-D7EF-4C3F-9A9D-DD7862803C73}">
-  <dimension ref="A1:I23"/>
+  <dimension ref="A1:J23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="83" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19:I19"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="83" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="19.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="36.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="52.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="64.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="58.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="49.109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="36.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="35.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="61.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.08984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36.36328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="52.36328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="64.90625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="58.90625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="49.08984375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="36.36328125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="35.36328125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="61.81640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="78.08984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A1" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="7"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B1" s="11"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
@@ -890,7 +926,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -898,7 +934,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -906,7 +942,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -914,7 +950,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -922,7 +958,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>1</v>
       </c>
@@ -930,7 +966,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -938,7 +974,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -946,7 +982,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>4</v>
       </c>
@@ -954,10 +990,10 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
       <c r="C14" s="1"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
         <v>0</v>
       </c>
@@ -985,8 +1021,11 @@
       <c r="I15" s="2" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J15" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A16" s="3" t="s">
         <v>12</v>
       </c>
@@ -1014,37 +1053,43 @@
       <c r="I16" s="4" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J16" s="4" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A17" s="3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="I17" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+        <v>62</v>
+      </c>
+      <c r="I17" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="J17" s="4" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A18" s="3" t="s">
         <v>2</v>
       </c>
@@ -1072,37 +1117,43 @@
       <c r="I18" s="4" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J18" s="4" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A19" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="B19" s="11" t="s">
-        <v>28</v>
+        <v>7</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>25</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E19" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="F19" s="8" t="s">
-        <v>56</v>
+        <v>49</v>
+      </c>
+      <c r="F19" s="10" t="s">
+        <v>54</v>
       </c>
       <c r="G19" s="8" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="H19" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="I19" s="10" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+        <v>70</v>
+      </c>
+      <c r="I19" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="J19" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A20" s="3" t="s">
         <v>1</v>
       </c>
@@ -1130,8 +1181,11 @@
       <c r="I20" s="4" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J20" s="4" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A21" s="3" t="s">
         <v>8</v>
       </c>
@@ -1159,8 +1213,11 @@
       <c r="I21" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J21" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A22" s="3" t="s">
         <v>10</v>
       </c>
@@ -1188,34 +1245,40 @@
       <c r="I22" s="4" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A23" s="3" t="s">
-        <v>5</v>
+      <c r="J22" s="4" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>4</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="D23" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="E23" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="F23" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="G23" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="H23" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="I23" s="4" t="s">
-        <v>77</v>
+        <v>28</v>
+      </c>
+      <c r="C23" t="s">
+        <v>33</v>
+      </c>
+      <c r="D23" t="s">
+        <v>41</v>
+      </c>
+      <c r="E23" t="s">
+        <v>53</v>
+      </c>
+      <c r="F23" t="s">
+        <v>56</v>
+      </c>
+      <c r="G23" t="s">
+        <v>66</v>
+      </c>
+      <c r="H23" t="s">
+        <v>66</v>
+      </c>
+      <c r="I23" t="s">
+        <v>80</v>
+      </c>
+      <c r="J23" t="s">
+        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -1230,7 +1293,7 @@
     <hyperlink ref="A10" r:id="rId2" display="https://github.com/tirth-patel01" xr:uid="{72DD30BD-5407-4824-AFB9-664AE4F9B048}"/>
     <hyperlink ref="A3" r:id="rId3" display="https://github.com/amannain122" xr:uid="{1AC88A5A-887D-428B-92A3-69F80D6CA6FB}"/>
     <hyperlink ref="A18" r:id="rId4" display="https://github.com/gaurav809" xr:uid="{BF272794-3603-44A0-B19F-13312A27B917}"/>
-    <hyperlink ref="A19" r:id="rId5" display="https://github.com/tirth-patel01" xr:uid="{98C89845-5CF5-43A5-80B5-F25DF17B3EC3}"/>
+    <hyperlink ref="A23" r:id="rId5" display="https://github.com/tirth-patel01" xr:uid="{98C89845-5CF5-43A5-80B5-F25DF17B3EC3}"/>
     <hyperlink ref="A16" r:id="rId6" display="https://github.com/amannain122" xr:uid="{8D7EB5B3-F8B7-4DCE-B367-2B5BB4254AE5}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/docs/GROUP - C Weekly Progress Report.xlsx
+++ b/docs/GROUP - C Weekly Progress Report.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\cardiovascular-disease-prediction\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4752C897-84D9-402A-958C-2E8371B4FDC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{929AFFA4-45C7-4951-9405-4D5F788712AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{8223AA31-6659-428F-A36B-A92BFE678B6C}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="97">
   <si>
     <t>Members</t>
   </si>
@@ -306,6 +306,27 @@
   </si>
   <si>
     <t>PERFORMED RANDOM SEARCH ON LOGISTIC REGRESSION</t>
+  </si>
+  <si>
+    <t>Week - 13</t>
+  </si>
+  <si>
+    <t>DUMPED MODELS USING JOBLIB</t>
+  </si>
+  <si>
+    <t>DASHBOARD USING STREAMLIT</t>
+  </si>
+  <si>
+    <t>DASHBOARD USING LOOKER</t>
+  </si>
+  <si>
+    <t>DASHBOARD USING STREAMLIT, MODEL DUMPING</t>
+  </si>
+  <si>
+    <t>MODULARIZATION AND CODE REFACTORING, SET UP VISUALIZATION FILE</t>
+  </si>
+  <si>
+    <t>MODULARIZATION AND REFACTORED MODEL TUNERS</t>
   </si>
 </sst>
 </file>
@@ -444,7 +465,7 @@
     <cellStyle name="20% - Accent1" xfId="1" builtinId="30"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="14">
+  <dxfs count="15">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -487,6 +508,9 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="left" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -540,22 +564,23 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D57AB53B-F699-4696-B86A-BE5D01D4904D}" name="Table1" displayName="Table1" ref="A15:J23" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12">
-  <autoFilter ref="A15:J23" xr:uid="{D57AB53B-F699-4696-B86A-BE5D01D4904D}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D57AB53B-F699-4696-B86A-BE5D01D4904D}" name="Table1" displayName="Table1" ref="A15:K23" totalsRowShown="0" headerRowDxfId="14" dataDxfId="13">
+  <autoFilter ref="A15:K23" xr:uid="{D57AB53B-F699-4696-B86A-BE5D01D4904D}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A16:J23">
     <sortCondition ref="A15:A23"/>
   </sortState>
-  <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{ED33A48B-D1CE-41CD-8CC6-34812A592555}" name="Members" dataDxfId="11"/>
-    <tableColumn id="2" xr3:uid="{FDB5DA1A-7203-4A45-8FA8-E99AF10F1B82}" name="Week 1-3" dataDxfId="10"/>
-    <tableColumn id="3" xr3:uid="{2CC5A466-7EB6-4634-8895-952B59F7A66E}" name="Week - 4" dataDxfId="9"/>
-    <tableColumn id="4" xr3:uid="{E40FD174-8A88-45E3-A0CC-689EF08CFC0D}" name="Week-5" dataDxfId="8"/>
-    <tableColumn id="5" xr3:uid="{FDEE3588-2152-4E62-80C0-6D232F7A0ECE}" name="Week - 6" dataDxfId="7"/>
-    <tableColumn id="6" xr3:uid="{055F4438-72ED-4FC2-9ED7-A3D45A9258D5}" name="Week - 7" dataDxfId="6"/>
-    <tableColumn id="7" xr3:uid="{9344000E-B16C-4BB9-875A-8497E3935AE5}" name="Week - 9" dataDxfId="5"/>
-    <tableColumn id="8" xr3:uid="{0D15DCEC-B2C7-48FE-B361-91B8FDB7DAE3}" name="Week - 10" dataDxfId="4"/>
-    <tableColumn id="9" xr3:uid="{3E681203-D626-41A0-A13C-41B528BA7F22}" name="Week - 11" dataDxfId="3"/>
-    <tableColumn id="10" xr3:uid="{D18441B6-A521-494D-95BB-7EF4D1D091F8}" name="Week - 12" dataDxfId="2"/>
+  <tableColumns count="11">
+    <tableColumn id="1" xr3:uid="{ED33A48B-D1CE-41CD-8CC6-34812A592555}" name="Members" dataDxfId="12"/>
+    <tableColumn id="2" xr3:uid="{FDB5DA1A-7203-4A45-8FA8-E99AF10F1B82}" name="Week 1-3" dataDxfId="11"/>
+    <tableColumn id="3" xr3:uid="{2CC5A466-7EB6-4634-8895-952B59F7A66E}" name="Week - 4" dataDxfId="10"/>
+    <tableColumn id="4" xr3:uid="{E40FD174-8A88-45E3-A0CC-689EF08CFC0D}" name="Week-5" dataDxfId="9"/>
+    <tableColumn id="5" xr3:uid="{FDEE3588-2152-4E62-80C0-6D232F7A0ECE}" name="Week - 6" dataDxfId="8"/>
+    <tableColumn id="6" xr3:uid="{055F4438-72ED-4FC2-9ED7-A3D45A9258D5}" name="Week - 7" dataDxfId="7"/>
+    <tableColumn id="7" xr3:uid="{9344000E-B16C-4BB9-875A-8497E3935AE5}" name="Week - 9" dataDxfId="6"/>
+    <tableColumn id="8" xr3:uid="{0D15DCEC-B2C7-48FE-B361-91B8FDB7DAE3}" name="Week - 10" dataDxfId="5"/>
+    <tableColumn id="9" xr3:uid="{3E681203-D626-41A0-A13C-41B528BA7F22}" name="Week - 11" dataDxfId="4"/>
+    <tableColumn id="10" xr3:uid="{D18441B6-A521-494D-95BB-7EF4D1D091F8}" name="Week - 12" dataDxfId="3"/>
+    <tableColumn id="11" xr3:uid="{191F35ED-889F-469A-83E0-A0BDD65CAD73}" name="Week - 13" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -892,10 +917,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{964F5DAF-D7EF-4C3F-9A9D-DD7862803C73}">
-  <dimension ref="A1:J23"/>
+  <dimension ref="A1:K23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="83" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="J21" sqref="J21"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="83" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -910,15 +935,16 @@
     <col min="8" max="8" width="35.36328125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="61.81640625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="78.08984375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="62.36328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1" s="11" t="s">
         <v>17</v>
       </c>
       <c r="B1" s="11"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
@@ -926,7 +952,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -934,7 +960,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -942,7 +968,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -950,7 +976,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -958,7 +984,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>1</v>
       </c>
@@ -966,7 +992,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -974,7 +1000,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -982,7 +1008,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>4</v>
       </c>
@@ -990,10 +1016,10 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
       <c r="C14" s="1"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
         <v>0</v>
       </c>
@@ -1024,8 +1050,11 @@
       <c r="J15" s="2" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K15" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A16" s="3" t="s">
         <v>12</v>
       </c>
@@ -1056,8 +1085,11 @@
       <c r="J16" s="4" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K16" s="4" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A17" s="3" t="s">
         <v>5</v>
       </c>
@@ -1088,8 +1120,11 @@
       <c r="J17" s="4" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K17" s="4" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A18" s="3" t="s">
         <v>2</v>
       </c>
@@ -1120,8 +1155,11 @@
       <c r="J18" s="4" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K18" s="4" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A19" s="9" t="s">
         <v>7</v>
       </c>
@@ -1152,8 +1190,11 @@
       <c r="J19" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K19" s="4" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A20" s="3" t="s">
         <v>1</v>
       </c>
@@ -1184,8 +1225,11 @@
       <c r="J20" s="4" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K20" s="4" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A21" s="3" t="s">
         <v>8</v>
       </c>
@@ -1216,8 +1260,11 @@
       <c r="J21" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K21" s="4" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A22" s="3" t="s">
         <v>10</v>
       </c>
@@ -1248,8 +1295,11 @@
       <c r="J22" s="4" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K22" s="4" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>4</v>
       </c>
@@ -1279,6 +1329,9 @@
       </c>
       <c r="J23" t="s">
         <v>83</v>
+      </c>
+      <c r="K23" s="4" t="s">
+        <v>93</v>
       </c>
     </row>
   </sheetData>

--- a/docs/GROUP - C Weekly Progress Report.xlsx
+++ b/docs/GROUP - C Weekly Progress Report.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\cardiovascular-disease-prediction\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{929AFFA4-45C7-4951-9405-4D5F788712AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FEA6C1A-66C8-43F3-BC72-12EB8451E8AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{8223AA31-6659-428F-A36B-A92BFE678B6C}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="103">
   <si>
     <t>Members</t>
   </si>
@@ -327,6 +327,24 @@
   </si>
   <si>
     <t>MODULARIZATION AND REFACTORED MODEL TUNERS</t>
+  </si>
+  <si>
+    <t>Week - 14</t>
+  </si>
+  <si>
+    <t>CODE REFACTORING, SLIDES, PRESENTATION</t>
+  </si>
+  <si>
+    <t>REFACTOR DASHBOARD</t>
+  </si>
+  <si>
+    <t>REFACTOR DASHBOARD, SLIDES, PRESENTATION</t>
+  </si>
+  <si>
+    <t>REFACTOR FEATURE IMPORTANT ANALYSIS</t>
+  </si>
+  <si>
+    <t>CODE REVIEW, SLIDES,  PRESENTATION</t>
   </si>
 </sst>
 </file>
@@ -465,7 +483,7 @@
     <cellStyle name="20% - Accent1" xfId="1" builtinId="30"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="15">
+  <dxfs count="16">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -511,6 +529,9 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="left" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -564,23 +585,24 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D57AB53B-F699-4696-B86A-BE5D01D4904D}" name="Table1" displayName="Table1" ref="A15:K23" totalsRowShown="0" headerRowDxfId="14" dataDxfId="13">
-  <autoFilter ref="A15:K23" xr:uid="{D57AB53B-F699-4696-B86A-BE5D01D4904D}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D57AB53B-F699-4696-B86A-BE5D01D4904D}" name="Table1" displayName="Table1" ref="A15:L23" totalsRowShown="0" headerRowDxfId="15" dataDxfId="14">
+  <autoFilter ref="A15:L23" xr:uid="{D57AB53B-F699-4696-B86A-BE5D01D4904D}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A16:J23">
     <sortCondition ref="A15:A23"/>
   </sortState>
-  <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{ED33A48B-D1CE-41CD-8CC6-34812A592555}" name="Members" dataDxfId="12"/>
-    <tableColumn id="2" xr3:uid="{FDB5DA1A-7203-4A45-8FA8-E99AF10F1B82}" name="Week 1-3" dataDxfId="11"/>
-    <tableColumn id="3" xr3:uid="{2CC5A466-7EB6-4634-8895-952B59F7A66E}" name="Week - 4" dataDxfId="10"/>
-    <tableColumn id="4" xr3:uid="{E40FD174-8A88-45E3-A0CC-689EF08CFC0D}" name="Week-5" dataDxfId="9"/>
-    <tableColumn id="5" xr3:uid="{FDEE3588-2152-4E62-80C0-6D232F7A0ECE}" name="Week - 6" dataDxfId="8"/>
-    <tableColumn id="6" xr3:uid="{055F4438-72ED-4FC2-9ED7-A3D45A9258D5}" name="Week - 7" dataDxfId="7"/>
-    <tableColumn id="7" xr3:uid="{9344000E-B16C-4BB9-875A-8497E3935AE5}" name="Week - 9" dataDxfId="6"/>
-    <tableColumn id="8" xr3:uid="{0D15DCEC-B2C7-48FE-B361-91B8FDB7DAE3}" name="Week - 10" dataDxfId="5"/>
-    <tableColumn id="9" xr3:uid="{3E681203-D626-41A0-A13C-41B528BA7F22}" name="Week - 11" dataDxfId="4"/>
-    <tableColumn id="10" xr3:uid="{D18441B6-A521-494D-95BB-7EF4D1D091F8}" name="Week - 12" dataDxfId="3"/>
-    <tableColumn id="11" xr3:uid="{191F35ED-889F-469A-83E0-A0BDD65CAD73}" name="Week - 13" dataDxfId="2"/>
+  <tableColumns count="12">
+    <tableColumn id="1" xr3:uid="{ED33A48B-D1CE-41CD-8CC6-34812A592555}" name="Members" dataDxfId="13"/>
+    <tableColumn id="2" xr3:uid="{FDB5DA1A-7203-4A45-8FA8-E99AF10F1B82}" name="Week 1-3" dataDxfId="12"/>
+    <tableColumn id="3" xr3:uid="{2CC5A466-7EB6-4634-8895-952B59F7A66E}" name="Week - 4" dataDxfId="11"/>
+    <tableColumn id="4" xr3:uid="{E40FD174-8A88-45E3-A0CC-689EF08CFC0D}" name="Week-5" dataDxfId="10"/>
+    <tableColumn id="5" xr3:uid="{FDEE3588-2152-4E62-80C0-6D232F7A0ECE}" name="Week - 6" dataDxfId="9"/>
+    <tableColumn id="6" xr3:uid="{055F4438-72ED-4FC2-9ED7-A3D45A9258D5}" name="Week - 7" dataDxfId="8"/>
+    <tableColumn id="7" xr3:uid="{9344000E-B16C-4BB9-875A-8497E3935AE5}" name="Week - 9" dataDxfId="7"/>
+    <tableColumn id="8" xr3:uid="{0D15DCEC-B2C7-48FE-B361-91B8FDB7DAE3}" name="Week - 10" dataDxfId="6"/>
+    <tableColumn id="9" xr3:uid="{3E681203-D626-41A0-A13C-41B528BA7F22}" name="Week - 11" dataDxfId="5"/>
+    <tableColumn id="10" xr3:uid="{D18441B6-A521-494D-95BB-7EF4D1D091F8}" name="Week - 12" dataDxfId="4"/>
+    <tableColumn id="11" xr3:uid="{191F35ED-889F-469A-83E0-A0BDD65CAD73}" name="Week - 13" dataDxfId="3"/>
+    <tableColumn id="12" xr3:uid="{6CEEE9AD-53BF-4F54-B0EF-345BFD1AA509}" name="Week - 14" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -917,10 +939,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{964F5DAF-D7EF-4C3F-9A9D-DD7862803C73}">
-  <dimension ref="A1:K23"/>
+  <dimension ref="A1:L23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="83" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="J25" sqref="J25"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="83" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -936,15 +958,16 @@
     <col min="9" max="9" width="61.81640625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="78.08984375" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="62.36328125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="61.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A1" s="11" t="s">
         <v>17</v>
       </c>
       <c r="B1" s="11"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
@@ -952,7 +975,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -960,7 +983,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -968,7 +991,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -976,7 +999,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -984,7 +1007,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>1</v>
       </c>
@@ -992,7 +1015,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -1000,7 +1023,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -1008,7 +1031,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>4</v>
       </c>
@@ -1016,10 +1039,10 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
       <c r="C14" s="1"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
         <v>0</v>
       </c>
@@ -1053,8 +1076,11 @@
       <c r="K15" s="2" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L15" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A16" s="3" t="s">
         <v>12</v>
       </c>
@@ -1088,8 +1114,11 @@
       <c r="K16" s="4" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L16" s="4" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A17" s="3" t="s">
         <v>5</v>
       </c>
@@ -1123,8 +1152,11 @@
       <c r="K17" s="4" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L17" s="4" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A18" s="3" t="s">
         <v>2</v>
       </c>
@@ -1158,8 +1190,11 @@
       <c r="K18" s="4" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L18" s="4" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A19" s="9" t="s">
         <v>7</v>
       </c>
@@ -1193,8 +1228,11 @@
       <c r="K19" s="4" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L19" s="4" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A20" s="3" t="s">
         <v>1</v>
       </c>
@@ -1228,8 +1266,11 @@
       <c r="K20" s="4" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L20" s="4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A21" s="3" t="s">
         <v>8</v>
       </c>
@@ -1263,8 +1304,11 @@
       <c r="K21" s="4" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L21" s="4" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A22" s="3" t="s">
         <v>10</v>
       </c>
@@ -1298,8 +1342,11 @@
       <c r="K22" s="4" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L22" s="4" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>4</v>
       </c>
@@ -1331,6 +1378,9 @@
         <v>83</v>
       </c>
       <c r="K23" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="L23" s="4" t="s">
         <v>93</v>
       </c>
     </row>
